--- a/Revised decison matrix using M1.xlsx
+++ b/Revised decison matrix using M1.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heshifan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45175C6C-AE30-D74B-A758-699A251AEC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expert_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Expert_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Expert_3" sheetId="4" r:id="rId3"/>
-    <sheet name="Expert_4" sheetId="5" r:id="rId4"/>
-    <sheet name="Expert_5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Expert_1" r:id="rId4" sheetId="2"/>
+    <sheet name="Expert_2" r:id="rId6" sheetId="3"/>
+    <sheet name="Expert_3" r:id="rId7" sheetId="4"/>
+    <sheet name="Expert_4" r:id="rId8" sheetId="5"/>
+    <sheet name="Expert_5" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Alternative_1</t>
   </si>
@@ -110,19 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,413 +455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E951C604-F3F8-CD4F-AE6E-159642DDB6CB}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0.33304346888774999</v>
-      </c>
-      <c r="C2">
-        <v>0.38362007598058223</v>
-      </c>
-      <c r="D2">
-        <v>0.50307637300839247</v>
-      </c>
-      <c r="E2">
-        <v>0.60170490311958802</v>
-      </c>
-      <c r="F2">
-        <v>0.73502758556955361</v>
-      </c>
-      <c r="G2">
-        <v>0.64755246731548421</v>
-      </c>
-      <c r="H2">
-        <v>0.46591391356790302</v>
-      </c>
-      <c r="I2">
-        <v>0.41182982488115011</v>
-      </c>
-      <c r="J2">
-        <v>0.37440392252321752</v>
-      </c>
-      <c r="K2">
-        <v>0.39547727166100816</v>
-      </c>
-      <c r="L2">
-        <v>0.59094355556404743</v>
-      </c>
-      <c r="M2">
-        <v>0.92967742872706716</v>
-      </c>
-      <c r="N2">
-        <v>0.50870369433081086</v>
-      </c>
-      <c r="O2">
-        <v>0.97379682014153934</v>
-      </c>
-      <c r="P2">
-        <v>0.4388438880336471</v>
-      </c>
-      <c r="Q2">
-        <v>0.70796893548925632</v>
-      </c>
-      <c r="R2">
-        <v>0.73091595501191686</v>
-      </c>
-      <c r="S2">
-        <v>0.25138311099226368</v>
-      </c>
-      <c r="T2">
-        <v>0.89835216426425235</v>
-      </c>
-      <c r="U2">
-        <v>0.9158878598395146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0.76184440698011069</v>
-      </c>
-      <c r="C3">
-        <v>0.6777551114129573</v>
-      </c>
-      <c r="D3">
-        <v>0.36437108825921577</v>
-      </c>
-      <c r="E3">
-        <v>0.65389212354726223</v>
-      </c>
-      <c r="F3">
-        <v>0.77033783842023951</v>
-      </c>
-      <c r="G3">
-        <v>0.83527234072692957</v>
-      </c>
-      <c r="H3">
-        <v>0.77200000937218027</v>
-      </c>
-      <c r="I3">
-        <v>0.57656471525443731</v>
-      </c>
-      <c r="J3">
-        <v>0.65517242316523328</v>
-      </c>
-      <c r="K3">
-        <v>0.85401318342602028</v>
-      </c>
-      <c r="L3">
-        <v>0.45324297088443494</v>
-      </c>
-      <c r="M3">
-        <v>0.45378598685485666</v>
-      </c>
-      <c r="N3">
-        <v>0.67215684396476683</v>
-      </c>
-      <c r="O3">
-        <v>0.23833957811706794</v>
-      </c>
-      <c r="P3">
-        <v>0.484943614858176</v>
-      </c>
-      <c r="Q3">
-        <v>0.37169292440423296</v>
-      </c>
-      <c r="R3">
-        <v>0.60331266515587167</v>
-      </c>
-      <c r="S3">
-        <v>0.51501357266785464</v>
-      </c>
-      <c r="T3">
-        <v>0.24279683203697094</v>
-      </c>
-      <c r="U3">
-        <v>0.77794679942423572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>0.38965231065099115</v>
-      </c>
-      <c r="C4">
-        <v>0.62125362956431374</v>
-      </c>
-      <c r="D4">
-        <v>0.43750000000000994</v>
-      </c>
-      <c r="E4">
-        <v>0.30599088290499526</v>
-      </c>
-      <c r="F4">
-        <v>0.225384752304922</v>
-      </c>
-      <c r="G4">
-        <v>0.17317355840847307</v>
-      </c>
-      <c r="H4">
-        <v>0.17345416149844786</v>
-      </c>
-      <c r="I4">
-        <v>0.36454067654782502</v>
-      </c>
-      <c r="J4">
-        <v>0.27536221446439763</v>
-      </c>
-      <c r="K4">
-        <v>0.29871736691642031</v>
-      </c>
-      <c r="L4">
-        <v>0.27999999062675629</v>
-      </c>
-      <c r="M4">
-        <v>0.19316744373697803</v>
-      </c>
-      <c r="N4">
-        <v>0.66394761551486237</v>
-      </c>
-      <c r="O4">
-        <v>0.45286765643080423</v>
-      </c>
-      <c r="P4">
-        <v>0.40657029906010672</v>
-      </c>
-      <c r="Q4">
-        <v>0.58824088158304522</v>
-      </c>
-      <c r="R4">
-        <v>0.22360293180303001</v>
-      </c>
-      <c r="S4">
-        <v>0.66239255028465038</v>
-      </c>
-      <c r="T4">
-        <v>0.26569898553599508</v>
-      </c>
-      <c r="U4">
-        <v>4.2846504227919684E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0.84756075202655756</v>
-      </c>
-      <c r="C5">
-        <v>0.45988049038056844</v>
-      </c>
-      <c r="D5">
-        <v>0.45479715924056524</v>
-      </c>
-      <c r="E5">
-        <v>0.35442306754999675</v>
-      </c>
-      <c r="F5">
-        <v>0.69760519748013161</v>
-      </c>
-      <c r="G5">
-        <v>0.33190985056480221</v>
-      </c>
-      <c r="H5">
-        <v>0.35525707123694311</v>
-      </c>
-      <c r="I5">
-        <v>0.59172949682754838</v>
-      </c>
-      <c r="J5">
-        <v>0.28042862940071994</v>
-      </c>
-      <c r="K5">
-        <v>8.7247256179998636E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.27435094526868331</v>
-      </c>
-      <c r="M5">
-        <v>0.47261815860560186</v>
-      </c>
-      <c r="N5">
-        <v>0.16389047364868212</v>
-      </c>
-      <c r="O5">
-        <v>0.27941436585168644</v>
-      </c>
-      <c r="P5">
-        <v>0.1712886679469014</v>
-      </c>
-      <c r="Q5">
-        <v>0.59312686115416857</v>
-      </c>
-      <c r="R5">
-        <v>0.38810809873508145</v>
-      </c>
-      <c r="S5">
-        <v>0.34896214379446061</v>
-      </c>
-      <c r="T5">
-        <v>0.59454033837868359</v>
-      </c>
-      <c r="U5">
-        <v>0.60290114821457985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0.3739894335786943</v>
-      </c>
-      <c r="C6">
-        <v>0.23916618773532011</v>
-      </c>
-      <c r="D6">
-        <v>0.58474334829139618</v>
-      </c>
-      <c r="E6">
-        <v>0.3273957525773159</v>
-      </c>
-      <c r="F6">
-        <v>0.29872849482700725</v>
-      </c>
-      <c r="G6">
-        <v>0.33621612239204984</v>
-      </c>
-      <c r="H6">
-        <v>0.42768447911720642</v>
-      </c>
-      <c r="I6">
-        <v>0.66083534991719051</v>
-      </c>
-      <c r="J6">
-        <v>0.84795124844538383</v>
-      </c>
-      <c r="K6">
-        <v>0.33648619311226707</v>
-      </c>
-      <c r="L6">
-        <v>0.97200324024088081</v>
-      </c>
-      <c r="M6">
-        <v>0.33830091049044669</v>
-      </c>
-      <c r="N6">
-        <v>0.36525147311838946</v>
-      </c>
-      <c r="O6">
-        <v>0.44377694441317073</v>
-      </c>
-      <c r="P6">
-        <v>0.6598569715120679</v>
-      </c>
-      <c r="Q6">
-        <v>0.40000000002610042</v>
-      </c>
-      <c r="R6">
-        <v>0.83874510686838699</v>
-      </c>
-      <c r="S6">
-        <v>0.73801958066760065</v>
-      </c>
-      <c r="T6">
-        <v>0.40462439389668692</v>
-      </c>
-      <c r="U6">
-        <v>0.42857812941683088</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6128CAD6-0B9D-BA4E-B3C1-335B75C5977D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -936,64 +541,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.3330434695153589</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.26026989054177962</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D2">
-        <v>0.39202094940429238</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="E2">
-        <v>0.77528675855509888</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.53502756745289481</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="G2">
-        <v>0.44755244919854137</v>
+        <v>0.39230769230769236</v>
       </c>
       <c r="H2">
-        <v>0.61170215467697175</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="I2">
-        <v>0.61182984299547893</v>
+        <v>1.0</v>
       </c>
       <c r="J2">
-        <v>0.17440390440340453</v>
+        <v>1.0</v>
       </c>
       <c r="K2">
-        <v>0.48616782496983096</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L2">
-        <v>0.39094353744684662</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="M2">
-        <v>0.92967742809667797</v>
+        <v>0.051282051282051294</v>
       </c>
       <c r="N2">
-        <v>0.70870371244524055</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="O2">
-        <v>0.97379681951118346</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="P2">
-        <v>0.23884386991510886</v>
+        <v>0.6519045361150624</v>
       </c>
       <c r="Q2">
-        <v>0.50995873632795341</v>
+        <v>0.6125</v>
       </c>
       <c r="R2">
-        <v>0.53091593689524674</v>
+        <v>0.0</v>
       </c>
       <c r="S2">
-        <v>0.25138311161921956</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T2">
-        <v>0.69835214614793562</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="U2">
-        <v>0.91588785920911442</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1001,64 +606,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.65784806911679683</v>
+        <v>0.32993939393939387</v>
       </c>
       <c r="C3">
-        <v>0.67775511078229511</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D3">
-        <v>0.19650613471998588</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.45389210543034419</v>
+        <v>0.5603603603603602</v>
       </c>
       <c r="F3">
-        <v>0.77033783778969833</v>
+        <v>0.1746206174777603</v>
       </c>
       <c r="G3">
-        <v>0.83527234009645746</v>
+        <v>0.2555555555555556</v>
       </c>
       <c r="H3">
-        <v>0.57199999125561585</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="I3">
-        <v>0.37656469713715396</v>
+        <v>0.07591836734693874</v>
       </c>
       <c r="J3">
-        <v>0.45517240504831624</v>
+        <v>0.0</v>
       </c>
       <c r="K3">
-        <v>0.85401318279556604</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L3">
-        <v>0.6532429889988095</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="M3">
-        <v>0.65378600496923911</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="N3">
-        <v>0.4721568258479123</v>
+        <v>0.48775510204081624</v>
       </c>
       <c r="O3">
-        <v>0.4374999769344774</v>
+        <v>0.3</v>
       </c>
       <c r="P3">
-        <v>0.68494363297258298</v>
+        <v>0.4402402402402403</v>
       </c>
       <c r="Q3">
-        <v>0.57169294251851632</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="R3">
-        <v>0.8033126832703843</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="S3">
-        <v>0.31501355455015068</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="T3">
-        <v>0.14172693295469282</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="U3">
-        <v>0.77794679879370321</v>
+        <v>0.5878787878787878</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1066,64 +671,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.5896523287652955</v>
+        <v>0.1875</v>
       </c>
       <c r="C4">
-        <v>0.71939062486779604</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>0.63510360734826299</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="E4">
-        <v>0.10599086478205506</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0.42538477041904404</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="G4">
-        <v>0.17317355903421092</v>
+        <v>0.8166179811749431</v>
       </c>
       <c r="H4">
-        <v>2.6595744680823933E-2</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I4">
-        <v>0.18960776523108985</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="J4">
-        <v>0.17707358618518917</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="K4">
-        <v>0.10912205395448957</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>0.48000000874093035</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="M4">
-        <v>9.3103651399168055E-2</v>
+        <v>1.0</v>
       </c>
       <c r="N4">
-        <v>0.66394761488417908</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="O4">
-        <v>0.25286763831246745</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="P4">
-        <v>0.60657031717443033</v>
+        <v>0.72</v>
       </c>
       <c r="Q4">
-        <v>0.3882408634658262</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>0.22360293242964199</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S4">
-        <v>0.85739391369446505</v>
+        <v>0.95</v>
       </c>
       <c r="T4">
-        <v>0.26569898616308707</v>
+        <v>0.21379310344827582</v>
       </c>
       <c r="U4">
-        <v>4.2846504842429897E-2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1131,64 +736,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.88495234609335349</v>
+        <v>0.55</v>
       </c>
       <c r="C5">
-        <v>0.35369742352680755</v>
+        <v>0.7546485260770974</v>
       </c>
       <c r="D5">
-        <v>0.65479717735494136</v>
+        <v>0.3739130434782608</v>
       </c>
       <c r="E5">
-        <v>0.35442306817773356</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="F5">
-        <v>0.49760517936336635</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="G5">
-        <v>0.37209302325576676</v>
+        <v>0.7937499999999998</v>
       </c>
       <c r="H5">
-        <v>0.55525708935120688</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I5">
-        <v>0.39172947871035174</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="J5">
-        <v>0.4804286475148945</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K5">
-        <v>8.7247256802013146E-2</v>
+        <v>0.6148148148148148</v>
       </c>
       <c r="L5">
-        <v>8.7677806185788271E-2</v>
+        <v>0.0</v>
       </c>
       <c r="M5">
-        <v>0.27261814048749633</v>
+        <v>0.39765395894428146</v>
       </c>
       <c r="N5">
-        <v>0.33333340105175091</v>
+        <v>0.764102564102564</v>
       </c>
       <c r="O5">
-        <v>0.2357784427660449</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="P5">
-        <v>0.17128866857261399</v>
+        <v>0.33851351351351344</v>
       </c>
       <c r="Q5">
-        <v>0.79312687926867298</v>
+        <v>0.6234999999999999</v>
       </c>
       <c r="R5">
-        <v>0.58810811684938402</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="S5">
-        <v>0.54896216190871705</v>
+        <v>0.6070175438596489</v>
       </c>
       <c r="T5">
-        <v>0.7945403564931891</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="U5">
-        <v>0.74727520745423326</v>
+        <v>0.5925925925925926</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1196,79 +801,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.17398941545887001</v>
+        <v>0.7614035087719296</v>
       </c>
       <c r="C6">
-        <v>0.23916618836213896</v>
+        <v>0.14014466546112117</v>
       </c>
       <c r="D6">
-        <v>0.77604562782441777</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.32739575320489128</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="F6">
-        <v>0.49872851294120329</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G6">
-        <v>0.13621610427087535</v>
+        <v>0.16973532796317609</v>
       </c>
       <c r="H6">
-        <v>0.62768449723155362</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I6">
-        <v>0.66083534928650245</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="J6">
-        <v>0.84795124781492381</v>
+        <v>0.3294117647058824</v>
       </c>
       <c r="K6">
-        <v>0.49707610458222368</v>
+        <v>0.8528074572395902</v>
       </c>
       <c r="L6">
-        <v>0.97200323961052371</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="M6">
-        <v>0.33830091111809246</v>
+        <v>0.5903540903540903</v>
       </c>
       <c r="N6">
-        <v>0.36525147374618289</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O6">
-        <v>0.64377696252753525</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="P6">
-        <v>0.85985698962662327</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="Q6">
-        <v>0.57846765580007387</v>
+        <v>1.0</v>
       </c>
       <c r="R6">
-        <v>0.8387451062379182</v>
+        <v>1.0</v>
       </c>
       <c r="S6">
-        <v>0.53801956255095373</v>
+        <v>0.0</v>
       </c>
       <c r="T6">
-        <v>0.59163450704533627</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="U6">
-        <v>0.54530226920321234</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2573ACBF-8F97-BE41-8E24-C7EDBBE7389B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1337,64 +941,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.5330434874229466</v>
+        <v>0.08671875000000002</v>
       </c>
       <c r="C2">
-        <v>0.46026990845000398</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0.30307635447225556</v>
+        <v>0.5922780797101451</v>
       </c>
       <c r="E2">
-        <v>0.57528674064995744</v>
+        <v>0.6562499999999999</v>
       </c>
       <c r="F2">
-        <v>0.73502758535966695</v>
+        <v>0.3915441176470588</v>
       </c>
       <c r="G2">
-        <v>0.64755246710556558</v>
+        <v>0.2985576923076924</v>
       </c>
       <c r="H2">
-        <v>0.66591393210305971</v>
+        <v>0.11155303030303035</v>
       </c>
       <c r="I2">
-        <v>0.41182982509037724</v>
+        <v>0.9187500000000001</v>
       </c>
       <c r="J2">
-        <v>0.17440390398627936</v>
+        <v>0.9187500000000001</v>
       </c>
       <c r="K2">
-        <v>0.59547729019617868</v>
+        <v>0.36534665991902826</v>
       </c>
       <c r="L2">
-        <v>0.59094355535410303</v>
+        <v>0.7188419117647057</v>
       </c>
       <c r="M2">
-        <v>0.72967741019148757</v>
+        <v>0.13253205128205126</v>
       </c>
       <c r="N2">
-        <v>0.70870371286596334</v>
+        <v>0.06136363636363639</v>
       </c>
       <c r="O2">
-        <v>0.87379250356244809</v>
+        <v>0.3</v>
       </c>
       <c r="P2">
-        <v>0.23884386949722716</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="Q2">
-        <v>0.50995873590894136</v>
+        <v>0.7875</v>
       </c>
       <c r="R2">
-        <v>0.73091595480202887</v>
+        <v>0.08125000000000003</v>
       </c>
       <c r="S2">
-        <v>0.45138312952753995</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>0.89835216405440876</v>
+        <v>0.2254741379310345</v>
       </c>
       <c r="U2">
-        <v>0.91588785962967467</v>
+        <v>0.5693602693602693</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1402,64 +1006,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.56184438844442253</v>
+        <v>0.5299393939393938</v>
       </c>
       <c r="C3">
-        <v>0.47775509287718138</v>
+        <v>0.8041666666666666</v>
       </c>
       <c r="D3">
-        <v>0.39650615262918049</v>
+        <v>0.08125000000000003</v>
       </c>
       <c r="E3">
-        <v>0.6037735848959257</v>
+        <v>0.7603603603603601</v>
       </c>
       <c r="F3">
-        <v>0.57033781988455845</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G3">
-        <v>0.63527232219129681</v>
+        <v>0.4555555555555556</v>
       </c>
       <c r="H3">
-        <v>0.77200000916230505</v>
+        <v>0.3982142857142856</v>
       </c>
       <c r="I3">
-        <v>0.57656471504448559</v>
+        <v>0.27591836734693875</v>
       </c>
       <c r="J3">
-        <v>0.65517242295531775</v>
+        <v>0.08125000000000003</v>
       </c>
       <c r="K3">
-        <v>0.65401316489039951</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L3">
-        <v>0.45324297109370121</v>
+        <v>0.7261029411764705</v>
       </c>
       <c r="M3">
-        <v>0.57853280562582121</v>
+        <v>0.6673076923076923</v>
       </c>
       <c r="N3">
-        <v>0.67215684375485807</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O3">
-        <v>0.37268042973722176</v>
+        <v>0.14374999999999996</v>
       </c>
       <c r="P3">
-        <v>0.55882349717580926</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="Q3">
-        <v>0.37169292461341519</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>0.72849535811237132</v>
+        <v>0.17506458664546892</v>
       </c>
       <c r="S3">
-        <v>0.51501357245786672</v>
+        <v>0.36290322580645157</v>
       </c>
       <c r="T3">
-        <v>0.14172693253824678</v>
+        <v>0.75</v>
       </c>
       <c r="U3">
-        <v>0.57794678088856033</v>
+        <v>0.3878787878787878</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1467,64 +1071,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.38965231086019508</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C4">
-        <v>0.82125364809946466</v>
+        <v>0.89375</v>
       </c>
       <c r="D4">
-        <v>0.43510358944315808</v>
+        <v>0.47138157894736854</v>
       </c>
       <c r="E4">
-        <v>0.1059908643667498</v>
+        <v>0.15625</v>
       </c>
       <c r="F4">
-        <v>0.22538475251380249</v>
+        <v>0.7035350678733033</v>
       </c>
       <c r="G4">
-        <v>0.1829291586834754</v>
+        <v>0.90625</v>
       </c>
       <c r="H4">
-        <v>4.9128535676056042E-21</v>
+        <v>0.7961309523809524</v>
       </c>
       <c r="I4">
-        <v>0.1645406580107687</v>
+        <v>0.6606854838709678</v>
       </c>
       <c r="J4">
-        <v>0.17707358576801879</v>
+        <v>0.39878158394087687</v>
       </c>
       <c r="K4">
-        <v>9.8717348377906092E-2</v>
+        <v>0.10625000000000002</v>
       </c>
       <c r="L4">
-        <v>0.27999999083578542</v>
+        <v>0.8058035714285713</v>
       </c>
       <c r="M4">
-        <v>0.29310366931296489</v>
+        <v>0.9187500000000001</v>
       </c>
       <c r="N4">
-        <v>0.46394759697906862</v>
+        <v>0.3758928571428571</v>
       </c>
       <c r="O4">
-        <v>0.25286763789445876</v>
+        <v>0.7606636784268362</v>
       </c>
       <c r="P4">
-        <v>0.40657029926932908</v>
+        <v>0.6262499999999999</v>
       </c>
       <c r="Q4">
-        <v>0.58824088137309949</v>
+        <v>0.3113281250000001</v>
       </c>
       <c r="R4">
-        <v>0.42360295033835721</v>
+        <v>0.5177389705882355</v>
       </c>
       <c r="S4">
-        <v>0.6573938957892973</v>
+        <v>0.7749999999999997</v>
       </c>
       <c r="T4">
-        <v>0.46569900407125114</v>
+        <v>0.40896551724137936</v>
       </c>
       <c r="U4">
-        <v>0.19623680564003707</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1532,64 +1136,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.88495234651393317</v>
+        <v>0.5687499999999999</v>
       </c>
       <c r="C5">
-        <v>0.55369744143426425</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D5">
-        <v>0.45479715944983279</v>
+        <v>0.3551630434782608</v>
       </c>
       <c r="E5">
-        <v>0.55442308608518232</v>
+        <v>0.49761904761904757</v>
       </c>
       <c r="F5">
-        <v>0.69760519727023229</v>
+        <v>0.43529411764705883</v>
       </c>
       <c r="G5">
-        <v>0.5319098690999996</v>
+        <v>0.96875</v>
       </c>
       <c r="H5">
-        <v>0.35525707144610391</v>
+        <v>0.775757575757576</v>
       </c>
       <c r="I5">
-        <v>0.39172947829163912</v>
+        <v>0.5832661290322579</v>
       </c>
       <c r="J5">
-        <v>0.2804286296097499</v>
+        <v>0.6614697851647956</v>
       </c>
       <c r="K5">
-        <v>0.28724727471640438</v>
+        <v>0.6335648148148149</v>
       </c>
       <c r="L5">
-        <v>9.4202898550726055E-2</v>
+        <v>0.08125000000000003</v>
       </c>
       <c r="M5">
-        <v>0.27261814006934848</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.36389049218421171</v>
+        <v>0.6703525641025639</v>
       </c>
       <c r="O5">
-        <v>0.43577846067457909</v>
+        <v>0.2716346153846154</v>
       </c>
       <c r="P5">
-        <v>0.3712886864823951</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="Q5">
-        <v>0.79312687968931939</v>
+        <v>0.8234999999999999</v>
       </c>
       <c r="R5">
-        <v>0.38810809894428344</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="S5">
-        <v>0.34896214400361242</v>
+        <v>0.40701754385964894</v>
       </c>
       <c r="T5">
-        <v>0.7945403569138344</v>
+        <v>0.6064516129032258</v>
       </c>
       <c r="U5">
-        <v>0.80290116674973067</v>
+        <v>0.7488425925925924</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1597,79 +1201,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.17398941504175153</v>
+        <v>0.9614035087719296</v>
       </c>
       <c r="C6">
-        <v>0.43916620627061626</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.78474336682654688</v>
+        <v>0.6562499999999999</v>
       </c>
       <c r="E6">
-        <v>0.52739577111251612</v>
+        <v>0.30803571428571436</v>
       </c>
       <c r="F6">
-        <v>0.49872851336222851</v>
+        <v>0.6514423076923076</v>
       </c>
       <c r="G6">
-        <v>0.13621610385455216</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.42768447932644987</v>
+        <v>0.5877976190476192</v>
       </c>
       <c r="I6">
-        <v>0.53044939068349828</v>
+        <v>0.5044642857142857</v>
       </c>
       <c r="J6">
-        <v>0.64795122990975917</v>
+        <v>0.4231617647058823</v>
       </c>
       <c r="K6">
-        <v>0.3364861933214004</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L6">
-        <v>0.77200322170532054</v>
+        <v>0.43419117647058847</v>
       </c>
       <c r="M6">
-        <v>0.53830092902564053</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="N6">
-        <v>0.56525149165357025</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="O6">
-        <v>0.64377696294833053</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="P6">
-        <v>0.85985699004721983</v>
+        <v>0.6937499999999999</v>
       </c>
       <c r="Q6">
-        <v>0.3784676378949734</v>
+        <v>0.9714843750000002</v>
       </c>
       <c r="R6">
-        <v>0.83874510665852964</v>
+        <v>0.9187500000000001</v>
       </c>
       <c r="S6">
-        <v>0.73801958045771499</v>
+        <v>0.2</v>
       </c>
       <c r="T6">
-        <v>0.59163450746620116</v>
+        <v>0.59375</v>
       </c>
       <c r="U6">
-        <v>0.34530225129810721</v>
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE93CA53-2E17-2B4A-A830-BB323F5CE325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1738,64 +1341,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53304348573088811</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>0.26026989179640619</v>
+        <v>0.41745283018867924</v>
       </c>
       <c r="D2">
-        <v>0.5030763711059556</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="E2">
-        <v>0.57528674232963573</v>
+        <v>0.7</v>
       </c>
       <c r="F2">
-        <v>0.73502758366937404</v>
+        <v>0.43529411764705883</v>
       </c>
       <c r="G2">
-        <v>0.44755245045768549</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="H2">
-        <v>0.46591391545546956</v>
+        <v>0.23030303030303031</v>
       </c>
       <c r="I2">
-        <v>0.61182984172508403</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>0.17440390565286959</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>0.39547727354724388</v>
+        <v>0.23684210526315788</v>
       </c>
       <c r="L2">
-        <v>0.3909435387050243</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="M2">
-        <v>0.72967741187244373</v>
+        <v>0.2512820512820513</v>
       </c>
       <c r="N2">
-        <v>0.70870371117549724</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>0.77379680328720268</v>
+        <v>0.13584905660377355</v>
       </c>
       <c r="P2">
-        <v>0.43884388613016451</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q2">
-        <v>0.70995875254432783</v>
+        <v>0.6125</v>
       </c>
       <c r="R2">
-        <v>0.73091595311170965</v>
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>0.372319431900767</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>0.69835214740940299</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="U2">
-        <v>0.71588784298479413</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1803,64 +1406,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.60256117234050011</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C3">
-        <v>0.47775509455567727</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D3">
-        <v>0.19650613597115785</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0.65389212164647492</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F3">
-        <v>0.57033782156418833</v>
+        <v>0.3746206174777603</v>
       </c>
       <c r="G3">
-        <v>0.63527232387153765</v>
+        <v>0.25555555555555565</v>
       </c>
       <c r="H3">
-        <v>0.77200000747223529</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I3">
-        <v>0.37656469839509626</v>
+        <v>0.12</v>
       </c>
       <c r="J3">
-        <v>0.65517242126445674</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.65401316657081399</v>
+        <v>0.4379017209205888</v>
       </c>
       <c r="L3">
-        <v>0.4532429727718138</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="M3">
-        <v>0.65378600369915019</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="N3">
-        <v>0.67215684206412907</v>
+        <v>0.6877551020408162</v>
       </c>
       <c r="O3">
-        <v>0.43833959495891239</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P3">
-        <v>0.6849436317026969</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q3">
-        <v>0.57169294124778691</v>
+        <v>0.6749999999999998</v>
       </c>
       <c r="R3">
-        <v>0.80331268200112582</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="S3">
-        <v>0.51501357076558352</v>
+        <v>0.16290322580645153</v>
       </c>
       <c r="T3">
-        <v>0.3417269491699475</v>
+        <v>0.8652465003043214</v>
       </c>
       <c r="U3">
-        <v>0.77794679752432638</v>
+        <v>0.5878787878787878</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1868,64 +1471,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.44891096548703247</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C4">
-        <v>0.82125364640966114</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
-        <v>0.63510360607804273</v>
+        <v>0.3526315789473685</v>
       </c>
       <c r="E4">
-        <v>0.30599088099808824</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
-        <v>0.37233790069826783</v>
+        <v>0.5352941176470589</v>
       </c>
       <c r="G4">
-        <v>0.37317357524924571</v>
+        <v>1.0</v>
       </c>
       <c r="H4">
-        <v>4.3401460086782875E-2</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="I4">
-        <v>0.16454065967646253</v>
+        <v>0.5419354838709678</v>
       </c>
       <c r="J4">
-        <v>0.37707360240020726</v>
+        <v>0.19878158394087683</v>
       </c>
       <c r="K4">
-        <v>9.8717350031810813E-2</v>
+        <v>0.0</v>
       </c>
       <c r="L4">
-        <v>0.48000000746922755</v>
+        <v>1.0</v>
       </c>
       <c r="M4">
-        <v>9.3103652636776404E-2</v>
+        <v>0.8</v>
       </c>
       <c r="N4">
-        <v>0.46394759865735347</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="O4">
-        <v>0.45286765452757521</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="P4">
-        <v>0.51964476571514928</v>
+        <v>0.52</v>
       </c>
       <c r="Q4">
-        <v>0.43448414570053029</v>
+        <v>0.4375</v>
       </c>
       <c r="R4">
-        <v>0.22360293368247044</v>
+        <v>0.65</v>
       </c>
       <c r="S4">
-        <v>0.85739391242543561</v>
+        <v>0.95</v>
       </c>
       <c r="T4">
-        <v>0.46569900237826445</v>
+        <v>0.21379310344827582</v>
       </c>
       <c r="U4">
-        <v>4.2846506044585932E-2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1933,64 +1536,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.68495232986882737</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>0.55369743974244523</v>
+        <v>0.5546485260770975</v>
       </c>
       <c r="D5">
-        <v>0.45479716112797092</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="E5">
-        <v>0.47436028916348594</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="F5">
-        <v>0.49760518062313053</v>
+        <v>0.23529411764705885</v>
       </c>
       <c r="G5">
-        <v>0.33190985244933491</v>
+        <v>0.7937499999999998</v>
       </c>
       <c r="H5">
-        <v>0.35525707312212274</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I5">
-        <v>0.59172949492618276</v>
+        <v>0.44</v>
       </c>
       <c r="J5">
-        <v>0.28042863128326356</v>
+        <v>0.8614697851647956</v>
       </c>
       <c r="K5">
-        <v>0.28724727301899972</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>0.28767782240274592</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
-        <v>0.47261815670270452</v>
+        <v>0.39765395894428146</v>
       </c>
       <c r="N5">
-        <v>0.21951216758667516</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="O5">
-        <v>0.23577844401949929</v>
+        <v>0.3153846153846154</v>
       </c>
       <c r="P5">
-        <v>0.17128866982180904</v>
+        <v>0.33851351351351344</v>
       </c>
       <c r="Q5">
-        <v>0.79312687799936787</v>
+        <v>0.6875</v>
       </c>
       <c r="R5">
-        <v>0.58810811557879694</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="S5">
-        <v>0.41758247712303598</v>
+        <v>0.6070175438596489</v>
       </c>
       <c r="T5">
-        <v>0.59454034026793456</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="U5">
-        <v>0.80290116505983178</v>
+        <v>0.7925925925925925</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1998,79 +1601,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.1739894167083007</v>
+        <v>0.7614035087719296</v>
       </c>
       <c r="C6">
-        <v>0.23916618961574704</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.7847433651365493</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.52739576942038879</v>
+        <v>0.26428571428571435</v>
       </c>
       <c r="F6">
-        <v>0.29872849671030144</v>
+        <v>0.6076923076923078</v>
       </c>
       <c r="G6">
-        <v>0.33621612048618327</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H6">
-        <v>0.62768449596127907</v>
+        <v>0.49696969696969706</v>
       </c>
       <c r="I6">
-        <v>0.46083533305959751</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.64795123159012491</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="K6">
-        <v>0.53648620995544438</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L6">
-        <v>0.85983278850076394</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="M6">
-        <v>0.53830092733364465</v>
+        <v>0.3903540903540903</v>
       </c>
       <c r="N6">
-        <v>0.36525147500384231</v>
+        <v>0.6285714285714287</v>
       </c>
       <c r="O6">
-        <v>0.51592359971693502</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="P6">
-        <v>0.65985697340191551</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="Q6">
-        <v>0.37846763957157531</v>
+        <v>0.8125</v>
       </c>
       <c r="R6">
-        <v>0.6387450900130266</v>
+        <v>0.8</v>
       </c>
       <c r="S6">
-        <v>0.53801956381115712</v>
+        <v>0.0</v>
       </c>
       <c r="T6">
-        <v>0.39163449081713886</v>
+        <v>0.3992696287279367</v>
       </c>
       <c r="U6">
-        <v>0.34530225297390232</v>
+        <v>0.4484276729559748</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396E653D-3757-114C-8D46-22B1E48E6BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -2139,64 +1741,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53304348775874921</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.26026988978936899</v>
+        <v>0.4174528301886792</v>
       </c>
       <c r="D2">
-        <v>0.30307635413776435</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E2">
-        <v>0.77528675931141378</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.73502758569533877</v>
+        <v>0.23529411764705885</v>
       </c>
       <c r="G2">
-        <v>0.4475524484449071</v>
+        <v>0.39230769230769236</v>
       </c>
       <c r="H2">
-        <v>0.66591393243876729</v>
+        <v>0.23030303030303031</v>
       </c>
       <c r="I2">
-        <v>0.41182982475566554</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>0.37440392264910699</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>0.39547727153553225</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="L2">
-        <v>0.541401251353267</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="M2">
-        <v>0.92967742885282967</v>
+        <v>0.2512820512820513</v>
       </c>
       <c r="N2">
-        <v>0.50870369420528982</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>0.97379682026729797</v>
+        <v>0.13584905660377355</v>
       </c>
       <c r="P2">
-        <v>0.43884388815950537</v>
+        <v>0.4519045361150624</v>
       </c>
       <c r="Q2">
-        <v>0.70995875457046942</v>
+        <v>0.8125</v>
       </c>
       <c r="R2">
-        <v>0.73091595513770258</v>
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>0.45138312986342866</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>0.6983521453936925</v>
+        <v>0.12</v>
       </c>
       <c r="U2">
-        <v>0.71588784096895497</v>
+        <v>0.5939393939393939</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2204,64 +1806,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.76184440710589207</v>
+        <v>0.32993939393939387</v>
       </c>
       <c r="C3">
-        <v>0.4777550925423848</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>0.39650615296514691</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0.45389210467668623</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F3">
-        <v>0.6592178794554282</v>
+        <v>0.3746206174777603</v>
       </c>
       <c r="G3">
-        <v>0.80337079102499043</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H3">
-        <v>0.77200000949796033</v>
+        <v>0.48571428571428565</v>
       </c>
       <c r="I3">
-        <v>0.37656469638384316</v>
+        <v>0.27591836734693875</v>
       </c>
       <c r="J3">
-        <v>0.45517240429465755</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.85401318355179034</v>
+        <v>0.4379017209205889</v>
       </c>
       <c r="L3">
-        <v>0.65324298975530826</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="M3">
-        <v>0.45378598672936232</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="N3">
-        <v>0.67215684409056209</v>
+        <v>0.6877551020408162</v>
       </c>
       <c r="O3">
-        <v>0.4383395969882628</v>
+        <v>0.3</v>
       </c>
       <c r="P3">
-        <v>0.48494361473266306</v>
+        <v>0.6402402402402403</v>
       </c>
       <c r="Q3">
-        <v>0.37169292427876993</v>
+        <v>0.47499999999999987</v>
       </c>
       <c r="R3">
-        <v>0.60331266503032654</v>
+        <v>0.35</v>
       </c>
       <c r="S3">
-        <v>0.31501355379723378</v>
+        <v>0.3629032258064515</v>
       </c>
       <c r="T3">
-        <v>0.34172695120155377</v>
+        <v>0.6652465003043214</v>
       </c>
       <c r="U3">
-        <v>0.77794679955001489</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2269,64 +1871,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.58965232952192026</v>
+        <v>0.24568452380952382</v>
       </c>
       <c r="C4">
-        <v>0.82125364843510029</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>0.43510358910841357</v>
+        <v>0.3526315789473685</v>
       </c>
       <c r="E4">
-        <v>0.10599086403379572</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0.22538475217959761</v>
+        <v>0.5352941176470589</v>
       </c>
       <c r="G4">
-        <v>0.3731735772799572</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H4">
-        <v>4.0061722915061428E-21</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I4">
-        <v>0.36454067667372025</v>
+        <v>0.5419354838709678</v>
       </c>
       <c r="J4">
-        <v>0.17707358543412111</v>
+        <v>0.3987815839408768</v>
       </c>
       <c r="K4">
-        <v>0.29871736704236368</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>0.48000000949785065</v>
+        <v>0.8058035714285713</v>
       </c>
       <c r="M4">
-        <v>0.20241314786076656</v>
+        <v>0.8</v>
       </c>
       <c r="N4">
-        <v>0.46394759664428792</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="O4">
-        <v>0.2528676375601332</v>
+        <v>0.5606636784268363</v>
       </c>
       <c r="P4">
-        <v>0.40657029893462582</v>
+        <v>0.72</v>
       </c>
       <c r="Q4">
-        <v>0.38824086271245473</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R4">
-        <v>0.41176470656213643</v>
+        <v>0.65</v>
       </c>
       <c r="S4">
-        <v>0.65739389545435545</v>
+        <v>0.75</v>
       </c>
       <c r="T4">
-        <v>0.26569898541061698</v>
+        <v>0.36</v>
       </c>
       <c r="U4">
-        <v>0.24284652310300986</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2334,64 +1936,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.68495232785321969</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>0.35369742277362615</v>
+        <v>0.5546485260770975</v>
       </c>
       <c r="D5">
-        <v>0.65479717811143745</v>
+        <v>0.17391304347826084</v>
       </c>
       <c r="E5">
-        <v>0.5544230864209666</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="F5">
-        <v>0.49760517860956155</v>
+        <v>0.3686274509803921</v>
       </c>
       <c r="G5">
-        <v>0.33190985043936483</v>
+        <v>0.9937499999999998</v>
       </c>
       <c r="H5">
-        <v>0.37963572108463528</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="I5">
-        <v>0.59172949695335975</v>
+        <v>0.5870967741935483</v>
       </c>
       <c r="J5">
-        <v>0.41757882920787182</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="K5">
-        <v>8.7247256055224931E-2</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>8.767780543895913E-2</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
-        <v>0.47261815873144719</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="N5">
-        <v>0.16389047352348879</v>
+        <v>0.764102564102564</v>
       </c>
       <c r="O5">
-        <v>0.43577846101048795</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="P5">
-        <v>0.37128868681840504</v>
+        <v>0.5385135135135134</v>
       </c>
       <c r="Q5">
-        <v>0.59312686102862577</v>
+        <v>0.6234999999999999</v>
       </c>
       <c r="R5">
-        <v>0.58810811760601212</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="S5">
-        <v>0.54896216266543763</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="T5">
-        <v>0.59454033825314045</v>
+        <v>0.6731182795698928</v>
       </c>
       <c r="U5">
-        <v>0.6938404892830462</v>
+        <v>0.5925925925925926</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2399,68 +2001,467 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.37398943370458398</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C6">
-        <v>0.43916620660652061</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.58673129573159355</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.32739575245188179</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="F6">
-        <v>0.29872849470159646</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G6">
-        <v>0.1362161035210761</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.62768449798809989</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I6">
-        <v>0.46083533104661561</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.64795122957482287</v>
+        <v>0.3294117647058824</v>
       </c>
       <c r="K6">
-        <v>0.5364862119832613</v>
+        <v>0.6528074572395902</v>
       </c>
       <c r="L6">
-        <v>0.77275452624695384</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="M6">
-        <v>0.33830091036500476</v>
+        <v>0.3903540903540903</v>
       </c>
       <c r="N6">
-        <v>0.56525149198934577</v>
+        <v>0.7482683982683985</v>
       </c>
       <c r="O6">
-        <v>0.44377694428767311</v>
+        <v>0.5083333333333331</v>
       </c>
       <c r="P6">
-        <v>0.65985697138651145</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="Q6">
-        <v>0.57846765655672361</v>
+        <v>0.8</v>
       </c>
       <c r="R6">
-        <v>0.63874508799782592</v>
+        <v>0.8</v>
       </c>
       <c r="S6">
-        <v>0.53801956179703436</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="T6">
-        <v>0.39163448880555574</v>
+        <v>0.3992696287279367</v>
       </c>
       <c r="U6">
-        <v>0.54530226995994235</v>
+        <v>0.24842767295597476</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.0625</v>
+      </c>
+      <c r="C2">
+        <v>0.2174528301886792</v>
+      </c>
+      <c r="D2">
+        <v>0.782608695652174</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.23529411764705885</v>
+      </c>
+      <c r="G2">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="H2">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="I2">
+        <v>1.0</v>
+      </c>
+      <c r="J2">
+        <v>1.0</v>
+      </c>
+      <c r="K2">
+        <v>0.4368421052631579</v>
+      </c>
+      <c r="L2">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="M2">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="N2">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>0.33584905660377357</v>
+      </c>
+      <c r="P2">
+        <v>0.4519045361150624</v>
+      </c>
+      <c r="Q2">
+        <v>0.8125</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2">
+        <v>0.8555555555555554</v>
+      </c>
+      <c r="T2">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="U2">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.5299393939393938</v>
+      </c>
+      <c r="C3">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.7603603603603601</v>
+      </c>
+      <c r="F3">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="G3">
+        <v>0.4555555555555556</v>
+      </c>
+      <c r="H3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I3">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="J3">
+        <v>0.0</v>
+      </c>
+      <c r="K3">
+        <v>0.6379017209205888</v>
+      </c>
+      <c r="L3">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="M3">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O3">
+        <v>0.3</v>
+      </c>
+      <c r="P3">
+        <v>0.6402402402402403</v>
+      </c>
+      <c r="Q3">
+        <v>0.47499999999999987</v>
+      </c>
+      <c r="R3">
+        <v>0.35</v>
+      </c>
+      <c r="S3">
+        <v>0.25</v>
+      </c>
+      <c r="T3">
+        <v>0.6652465003043214</v>
+      </c>
+      <c r="U3">
+        <v>0.3878787878787878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.057142857142857134</v>
+      </c>
+      <c r="C4">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="G4">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="H4">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="I4">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="J4">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="K4">
+        <v>0.0</v>
+      </c>
+      <c r="L4">
+        <v>1.0</v>
+      </c>
+      <c r="M4">
+        <v>1.0</v>
+      </c>
+      <c r="N4">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="O4">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="P4">
+        <v>0.52</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.45</v>
+      </c>
+      <c r="S4">
+        <v>0.75</v>
+      </c>
+      <c r="T4">
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="U4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D5">
+        <v>0.17391304347826084</v>
+      </c>
+      <c r="E5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F5">
+        <v>0.43529411764705883</v>
+      </c>
+      <c r="G5">
+        <v>0.9937499999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="I5">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="J5">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="K5">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5">
+        <v>0.19765395894428148</v>
+      </c>
+      <c r="N5">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="O5">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="P5">
+        <v>0.5385135135135134</v>
+      </c>
+      <c r="Q5">
+        <v>0.8234999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.25</v>
+      </c>
+      <c r="S5">
+        <v>0.40701754385964894</v>
+      </c>
+      <c r="T5">
+        <v>0.6064516129032258</v>
+      </c>
+      <c r="U5">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.9614035087719296</v>
+      </c>
+      <c r="C6">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="F6">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="I6">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="J6">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="K6">
+        <v>0.6528074572395902</v>
+      </c>
+      <c r="L6">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="M6">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="N6">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="O6">
+        <v>0.5083333333333331</v>
+      </c>
+      <c r="P6">
+        <v>0.68</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>1.0</v>
+      </c>
+      <c r="S6">
+        <v>0.2</v>
+      </c>
+      <c r="T6">
+        <v>0.5992696287279367</v>
+      </c>
+      <c r="U6">
+        <v>0.24842767295597476</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>